--- a/JSTboard.xlsx
+++ b/JSTboard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -187,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -229,13 +229,6 @@
       <b val="true"/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -304,7 +297,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,15 +305,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -347,9 +340,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>654480</xdr:colOff>
+      <xdr:colOff>654120</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -363,7 +356,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="436320" y="219600"/>
-          <a:ext cx="8345880" cy="5938560"/>
+          <a:ext cx="8345520" cy="5938200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -384,9 +377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>218520</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -396,7 +389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="426600" y="1262520"/>
-          <a:ext cx="604440" cy="315720"/>
+          <a:ext cx="604080" cy="315360"/>
         </a:xfrm>
         <a:prstGeom prst="frame">
           <a:avLst>
@@ -421,6 +414,43 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>446040</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>803160</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="画像 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="446040" y="6454080"/>
+          <a:ext cx="11736000" cy="6960960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -431,7 +461,7 @@
   </sheetPr>
   <dimension ref="A3:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -599,8 +629,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,7 +640,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
